--- a/vec/angularSource/src/assets/SearchByExcelTemplate/VECSearchByExcelTemplate.xlsx
+++ b/vec/angularSource/src/assets/SearchByExcelTemplate/VECSearchByExcelTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Angular_proj\vecSearch\src\assets\SearchByExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC4B2B9-ADC8-4FF4-AC6A-C41DF40DC84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B4281B-18DE-48F5-8AB9-203396813915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>KUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Project JYA Code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MODEL CODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COLOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MANUFATOR YEAR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -369,86 +385,106 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
